--- a/data/trans_dic/IP19C08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C08-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 18,72</t>
+          <t>3,14; 17,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 11,79</t>
+          <t>0,89; 12,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,61</t>
+          <t>0,0; 15,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 14,23</t>
+          <t>1,73; 14,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 13,16</t>
+          <t>3,88; 14,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,02</t>
+          <t>0,66; 5,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,65</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,61</t>
+          <t>3,08; 7,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,07</t>
+          <t>2,22; 6,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,49</t>
+          <t>1,66; 5,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 7,97</t>
+          <t>1,09; 8,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 7,8</t>
+          <t>3,28; 7,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 8,0</t>
+          <t>3,05; 8,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,42</t>
+          <t>2,85; 7,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,35</t>
+          <t>1,12; 4,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,25</t>
+          <t>3,76; 6,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,17</t>
+          <t>2,95; 6,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,77</t>
+          <t>2,71; 5,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,09</t>
+          <t>1,39; 5,29</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,47</t>
+          <t>0,0; 6,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,75</t>
+          <t>0,9; 8,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,73</t>
+          <t>0,0; 4,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,6</t>
+          <t>2,03; 8,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 12,88</t>
+          <t>2,83; 12,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 9,37</t>
+          <t>1,55; 8,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 6,06</t>
+          <t>0,58; 5,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 6,7</t>
+          <t>0,86; 7,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,06</t>
+          <t>1,99; 7,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,32</t>
+          <t>1,66; 6,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,0</t>
+          <t>0,67; 4,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,33</t>
+          <t>1,9; 6,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,04</t>
+          <t>3,32; 7,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,62</t>
+          <t>2,34; 5,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,38</t>
+          <t>1,5; 4,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,72</t>
+          <t>1,82; 6,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,2</t>
+          <t>3,89; 8,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,14</t>
+          <t>2,8; 6,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,99</t>
+          <t>2,48; 5,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,93</t>
+          <t>1,2; 3,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,87</t>
+          <t>3,96; 6,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,27</t>
+          <t>2,96; 5,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,38</t>
+          <t>2,2; 4,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,57</t>
+          <t>1,83; 4,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C08-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que en su última visita al dentista fue por selladores, aplicación de fluor</t>
+          <t>Menores que en su última visita al dentista fue por selladores, aplicación de flúor</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>8,18%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>4,47%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,55%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,51%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>7,31%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,06%</t>
         </is>
       </c>
     </row>
@@ -724,52 +724,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 17,86</t>
+          <t>1,48; 14,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 12,42</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0; 5,61</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0; 5,03</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 17,27</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 12,96</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>0; 4,66</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,93</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 14,59</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,74</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 5,61</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>0,0; 15,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 14,0</t>
+          <t>3,21; 12,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,55</t>
+          <t>0,67; 5,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,32</t>
+          <t>0,0; 7,7</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>5,13%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>3,72%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>3,3%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>4,77%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,51</t>
+          <t>3,29; 8,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,06</t>
+          <t>3,06; 7,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,38</t>
+          <t>2,79; 7,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 8,18</t>
+          <t>0,89; 4,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,93</t>
+          <t>3,27; 7,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,03</t>
+          <t>1,98; 6,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,42</t>
+          <t>1,87; 5,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,44</t>
+          <t>0,9; 8,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,9</t>
+          <t>3,74; 7,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,21</t>
+          <t>3,1; 6,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,55</t>
+          <t>2,71; 5,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,29</t>
+          <t>1,26; 5,14</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>1,86%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>3,55%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>1,63%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,56%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,76%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,45</t>
+          <t>2,87; 13,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,78</t>
+          <t>1,52; 8,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>0,56; 5,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 8,65</t>
+          <t>0,92; 6,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 12,73</t>
+          <t>0,0; 6,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 8,52</t>
+          <t>0,89; 9,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,54</t>
+          <t>0,0; 5,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,03</t>
+          <t>2,46; 9,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,44</t>
+          <t>2,32; 8,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,74</t>
+          <t>1,84; 7,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,09</t>
+          <t>0,41; 4,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,03</t>
+          <t>1,91; 6,38</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,83%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>3,77%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>2,65%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,39%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,03</t>
+          <t>4,08; 7,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,58</t>
+          <t>2,54; 6,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,5</t>
+          <t>2,39; 5,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,67</t>
+          <t>1,15; 3,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 8,01</t>
+          <t>3,21; 6,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,3</t>
+          <t>2,39; 5,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,74</t>
+          <t>1,57; 4,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,9</t>
+          <t>1,89; 6,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,67</t>
+          <t>4,05; 6,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 5,32</t>
+          <t>2,9; 5,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,38</t>
+          <t>2,19; 4,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,5</t>
+          <t>1,95; 4,61</t>
         </is>
       </c>
     </row>
